--- a/lowe/edd/data/SANF$HWS.xlsx
+++ b/lowe/edd/data/SANF$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1727,14 +1727,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH109"/>
+  <dimension ref="A1:JI109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1744,12 +1744,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1777,12 +1777,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2597,11 +2597,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3402,10 +3405,13 @@
         <v>1001900</v>
       </c>
       <c r="JH9" s="11">
-        <v>995500</v>
+        <v>995100</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>998200</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4206,10 +4212,13 @@
         <v>951300</v>
       </c>
       <c r="JH10" s="11">
-        <v>947400</v>
+        <v>946900</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>958300</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5010,10 +5019,13 @@
         <v>50600</v>
       </c>
       <c r="JH11" s="11">
-        <v>48100</v>
+        <v>48200</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>39900</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5816,8 +5828,11 @@
       <c r="JH12" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6618,10 +6633,13 @@
         <v>1096400</v>
       </c>
       <c r="JH13" s="11">
-        <v>1101600</v>
+        <v>1100500</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1105700</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7424,8 +7442,11 @@
       <c r="JH14" s="11">
         <v>1600</v>
       </c>
+      <c r="JI14" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8226,10 +8247,13 @@
         <v>1094800</v>
       </c>
       <c r="JH15" s="11">
-        <v>1100000</v>
+        <v>1098900</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>1104100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9030,10 +9054,13 @@
         <v>977000</v>
       </c>
       <c r="JH16" s="11">
-        <v>980500</v>
+        <v>979200</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>981900</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9836,8 +9863,11 @@
       <c r="JH17" s="11">
         <v>79800</v>
       </c>
+      <c r="JI17" s="11">
+        <v>80500</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10638,10 +10668,13 @@
         <v>43200</v>
       </c>
       <c r="JH18" s="11">
-        <v>42600</v>
+        <v>42700</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>43100</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11444,8 +11477,11 @@
       <c r="JH19" s="11">
         <v>100</v>
       </c>
+      <c r="JI19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12246,10 +12282,13 @@
         <v>43100</v>
       </c>
       <c r="JH20" s="11">
-        <v>42500</v>
+        <v>42600</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>43000</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -13050,10 +13089,13 @@
         <v>21200</v>
       </c>
       <c r="JH21" s="11">
-        <v>20800</v>
+        <v>21100</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>21400</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13854,10 +13896,13 @@
         <v>37000</v>
       </c>
       <c r="JH22" s="11">
-        <v>37200</v>
+        <v>37100</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>37400</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14658,10 +14703,13 @@
         <v>18600</v>
       </c>
       <c r="JH23" s="11">
-        <v>18700</v>
+        <v>18600</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>18800</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15464,8 +15512,11 @@
       <c r="JH24" s="11">
         <v>18500</v>
       </c>
+      <c r="JI24" s="11">
+        <v>18600</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16266,10 +16317,13 @@
         <v>1014600</v>
       </c>
       <c r="JH25" s="11">
-        <v>1020200</v>
+        <v>1019100</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>1023600</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -17070,10 +17124,13 @@
         <v>896800</v>
       </c>
       <c r="JH26" s="11">
-        <v>900700</v>
+        <v>899400</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>901400</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17874,10 +17931,13 @@
         <v>130500</v>
       </c>
       <c r="JH27" s="11">
-        <v>129600</v>
+        <v>129700</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>131100</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18680,8 +18740,11 @@
       <c r="JH28" s="11">
         <v>21600</v>
       </c>
+      <c r="JI28" s="11">
+        <v>21500</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19484,8 +19547,11 @@
       <c r="JH29" s="11">
         <v>10200</v>
       </c>
+      <c r="JI29" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20288,8 +20354,11 @@
       <c r="JH30" s="11">
         <v>8700</v>
       </c>
+      <c r="JI30" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21090,10 +21159,13 @@
         <v>69000</v>
       </c>
       <c r="JH31" s="11">
-        <v>67700</v>
+        <v>68100</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>69300</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21896,8 +21968,11 @@
       <c r="JH32" s="11">
         <v>16600</v>
       </c>
+      <c r="JI32" s="11">
+        <v>16600</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22700,8 +22775,11 @@
       <c r="JH33" s="11">
         <v>5700</v>
       </c>
+      <c r="JI33" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23502,10 +23580,13 @@
         <v>7200</v>
       </c>
       <c r="JH34" s="11">
-        <v>7100</v>
+        <v>7000</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>7200</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24306,10 +24387,13 @@
         <v>7400</v>
       </c>
       <c r="JH35" s="11">
-        <v>7300</v>
+        <v>7400</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>7600</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25112,8 +25196,11 @@
       <c r="JH36" s="11">
         <v>3800</v>
       </c>
+      <c r="JI36" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25914,10 +26001,13 @@
         <v>39900</v>
       </c>
       <c r="JH37" s="11">
+        <v>40000</v>
+      </c>
+      <c r="JI37" s="11">
         <v>40300</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26720,8 +26810,11 @@
       <c r="JH38" s="11">
         <v>5100</v>
       </c>
+      <c r="JI38" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41</v>
       </c>
@@ -27522,10 +27615,13 @@
         <v>34700</v>
       </c>
       <c r="JH39" s="11">
-        <v>35200</v>
+        <v>34900</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>35100</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>42</v>
       </c>
@@ -28328,8 +28424,11 @@
       <c r="JH40" s="11">
         <v>9000</v>
       </c>
+      <c r="JI40" s="11">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44</v>
       </c>
@@ -29130,10 +29229,13 @@
         <v>8000</v>
       </c>
       <c r="JH41" s="11">
-        <v>8100</v>
+        <v>8200</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>8400</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45</v>
       </c>
@@ -29934,10 +30036,13 @@
         <v>111000</v>
       </c>
       <c r="JH42" s="11">
-        <v>111800</v>
+        <v>111700</v>
+      </c>
+      <c r="JI42" s="11">
+        <v>110700</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>46</v>
       </c>
@@ -30738,10 +30843,13 @@
         <v>25800</v>
       </c>
       <c r="JH43" s="11">
-        <v>25600</v>
+        <v>25500</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>25400</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>49</v>
       </c>
@@ -31544,8 +31652,11 @@
       <c r="JH44" s="11">
         <v>4400</v>
       </c>
+      <c r="JI44" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>51</v>
       </c>
@@ -32346,10 +32457,13 @@
         <v>83400</v>
       </c>
       <c r="JH45" s="11">
-        <v>84100</v>
+        <v>84000</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>82500</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>52</v>
       </c>
@@ -33150,10 +33264,13 @@
         <v>62000</v>
       </c>
       <c r="JH46" s="11">
-        <v>62000</v>
+        <v>61900</v>
+      </c>
+      <c r="JI46" s="11">
+        <v>61300</v>
       </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>53</v>
       </c>
@@ -33954,10 +34071,13 @@
         <v>27500</v>
       </c>
       <c r="JH47" s="11">
-        <v>27500</v>
+        <v>27400</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>27200</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>54</v>
       </c>
@@ -34758,10 +34878,13 @@
         <v>13100</v>
       </c>
       <c r="JH48" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JI48" s="11">
         <v>13000</v>
       </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35564,8 +35687,11 @@
       <c r="JH49" s="11">
         <v>7000</v>
       </c>
+      <c r="JI49" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -36368,8 +36494,11 @@
       <c r="JH50" s="11">
         <v>24200</v>
       </c>
+      <c r="JI50" s="11">
+        <v>23900</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>58</v>
       </c>
@@ -37172,8 +37301,11 @@
       <c r="JH51" s="11">
         <v>10300</v>
       </c>
+      <c r="JI51" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>61</v>
       </c>
@@ -37976,8 +38108,11 @@
       <c r="JH52" s="11">
         <v>22100</v>
       </c>
+      <c r="JI52" s="11">
+        <v>21200</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>62</v>
       </c>
@@ -38778,10 +38913,13 @@
         <v>17300</v>
       </c>
       <c r="JH53" s="11">
-        <v>17500</v>
+        <v>17300</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>17100</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>64</v>
       </c>
@@ -39582,10 +39720,13 @@
         <v>290400</v>
       </c>
       <c r="JH54" s="11">
-        <v>292600</v>
+        <v>294000</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>295800</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>65</v>
       </c>
@@ -40386,10 +40527,13 @@
         <v>216100</v>
       </c>
       <c r="JH55" s="11">
-        <v>217700</v>
+        <v>218600</v>
+      </c>
+      <c r="JI55" s="11">
+        <v>219100</v>
       </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>66</v>
       </c>
@@ -41190,10 +41334,13 @@
         <v>17900</v>
       </c>
       <c r="JH56" s="11">
-        <v>17600</v>
+        <v>17500</v>
+      </c>
+      <c r="JI56" s="11">
+        <v>17300</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>67</v>
       </c>
@@ -41996,8 +42143,11 @@
       <c r="JH57" s="11">
         <v>12100</v>
       </c>
+      <c r="JI57" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>68</v>
       </c>
@@ -42800,8 +42950,11 @@
       <c r="JH58" s="11">
         <v>16200</v>
       </c>
+      <c r="JI58" s="11">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>69</v>
       </c>
@@ -43604,8 +43757,11 @@
       <c r="JH59" s="11">
         <v>83500</v>
       </c>
+      <c r="JI59" s="11">
+        <v>84600</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44408,8 +44564,11 @@
       <c r="JH60" s="11">
         <v>23500</v>
       </c>
+      <c r="JI60" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45210,10 +45369,13 @@
         <v>50900</v>
       </c>
       <c r="JH61" s="11">
-        <v>51400</v>
+        <v>51900</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>53400</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>73</v>
       </c>
@@ -46014,10 +46176,13 @@
         <v>48500</v>
       </c>
       <c r="JH62" s="11">
-        <v>49000</v>
+        <v>49500</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>50900</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>74</v>
       </c>
@@ -46820,8 +46985,11 @@
       <c r="JH63" s="11">
         <v>14400</v>
       </c>
+      <c r="JI63" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47624,8 +47792,11 @@
       <c r="JH64" s="11">
         <v>9400</v>
       </c>
+      <c r="JI64" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>76</v>
       </c>
@@ -48428,8 +48599,11 @@
       <c r="JH65" s="11">
         <v>13300</v>
       </c>
+      <c r="JI65" s="11">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>80</v>
       </c>
@@ -49230,10 +49404,13 @@
         <v>144700</v>
       </c>
       <c r="JH66" s="11">
-        <v>142500</v>
+        <v>141800</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>142200</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>81</v>
       </c>
@@ -50034,10 +50211,13 @@
         <v>27300</v>
       </c>
       <c r="JH67" s="11">
-        <v>27600</v>
+        <v>27800</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>28900</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>82</v>
       </c>
@@ -50838,10 +51018,13 @@
         <v>11600</v>
       </c>
       <c r="JH68" s="11">
-        <v>11800</v>
+        <v>12300</v>
+      </c>
+      <c r="JI68" s="11">
+        <v>13500</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>84</v>
       </c>
@@ -51642,10 +51825,13 @@
         <v>117400</v>
       </c>
       <c r="JH69" s="11">
-        <v>114900</v>
+        <v>114000</v>
+      </c>
+      <c r="JI69" s="11">
+        <v>113300</v>
       </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>85</v>
       </c>
@@ -52446,10 +52632,13 @@
         <v>39800</v>
       </c>
       <c r="JH70" s="11">
-        <v>37900</v>
+        <v>38000</v>
+      </c>
+      <c r="JI70" s="11">
+        <v>37700</v>
       </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>86</v>
       </c>
@@ -53252,8 +53441,11 @@
       <c r="JH71" s="11">
         <v>13700</v>
       </c>
+      <c r="JI71" s="11">
+        <v>13700</v>
+      </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>87</v>
       </c>
@@ -54056,8 +54248,11 @@
       <c r="JH72" s="11">
         <v>9300</v>
       </c>
+      <c r="JI72" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>88</v>
       </c>
@@ -54858,10 +55053,13 @@
         <v>54200</v>
       </c>
       <c r="JH73" s="11">
-        <v>54000</v>
+        <v>53000</v>
+      </c>
+      <c r="JI73" s="11">
+        <v>52700</v>
       </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>89</v>
       </c>
@@ -55662,10 +55860,13 @@
         <v>102000</v>
       </c>
       <c r="JH74" s="11">
-        <v>104100</v>
+        <v>104300</v>
+      </c>
+      <c r="JI74" s="11">
+        <v>106700</v>
       </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>90</v>
       </c>
@@ -56466,10 +56667,13 @@
         <v>13600</v>
       </c>
       <c r="JH75" s="11">
-        <v>13300</v>
+        <v>13500</v>
+      </c>
+      <c r="JI75" s="11">
+        <v>14000</v>
       </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>91</v>
       </c>
@@ -57270,10 +57474,13 @@
         <v>5200</v>
       </c>
       <c r="JH76" s="11">
-        <v>5200</v>
+        <v>5300</v>
+      </c>
+      <c r="JI76" s="11">
+        <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>93</v>
       </c>
@@ -58076,8 +58283,11 @@
       <c r="JH77" s="11">
         <v>90800</v>
       </c>
+      <c r="JI77" s="11">
+        <v>92700</v>
+      </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>94</v>
       </c>
@@ -58880,8 +59090,11 @@
       <c r="JH78" s="11">
         <v>14200</v>
       </c>
+      <c r="JI78" s="11">
+        <v>14100</v>
+      </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>95</v>
       </c>
@@ -59684,8 +59897,11 @@
       <c r="JH79" s="11">
         <v>76600</v>
       </c>
+      <c r="JI79" s="11">
+        <v>78600</v>
+      </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>96</v>
       </c>
@@ -60488,8 +60704,11 @@
       <c r="JH80" s="11">
         <v>6300</v>
       </c>
+      <c r="JI80" s="11">
+        <v>6700</v>
+      </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>97</v>
       </c>
@@ -61290,10 +61509,13 @@
         <v>60800</v>
       </c>
       <c r="JH81" s="11">
-        <v>62300</v>
+        <v>62800</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>64100</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>98</v>
       </c>
@@ -62094,10 +62316,13 @@
         <v>35600</v>
       </c>
       <c r="JH82" s="11">
-        <v>37200</v>
+        <v>37000</v>
+      </c>
+      <c r="JI82" s="11">
+        <v>38300</v>
       </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>99</v>
       </c>
@@ -62898,10 +63123,13 @@
         <v>25200</v>
       </c>
       <c r="JH83" s="11">
-        <v>25100</v>
+        <v>25800</v>
+      </c>
+      <c r="JI83" s="11">
+        <v>25800</v>
       </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -63702,10 +63930,13 @@
         <v>34800</v>
       </c>
       <c r="JH84" s="11">
-        <v>36000</v>
+        <v>33900</v>
+      </c>
+      <c r="JI84" s="11">
+        <v>32400</v>
       </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>103</v>
       </c>
@@ -64506,10 +64737,13 @@
         <v>9600</v>
       </c>
       <c r="JH85" s="11">
-        <v>9900</v>
+        <v>9800</v>
+      </c>
+      <c r="JI85" s="11">
+        <v>9400</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>104</v>
       </c>
@@ -65310,10 +65544,13 @@
         <v>18500</v>
       </c>
       <c r="JH86" s="11">
-        <v>18200</v>
+        <v>18100</v>
+      </c>
+      <c r="JI86" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>106</v>
       </c>
@@ -66114,10 +66351,13 @@
         <v>117800</v>
       </c>
       <c r="JH87" s="11">
-        <v>119500</v>
+        <v>119700</v>
+      </c>
+      <c r="JI87" s="11">
+        <v>122200</v>
       </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>107</v>
       </c>
@@ -66920,8 +67160,11 @@
       <c r="JH88" s="11">
         <v>16400</v>
       </c>
+      <c r="JI88" s="11">
+        <v>16300</v>
+      </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>108</v>
       </c>
@@ -67724,8 +67967,11 @@
       <c r="JH89" s="11">
         <v>16100</v>
       </c>
+      <c r="JI89" s="11">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>109</v>
       </c>
@@ -68528,8 +68774,11 @@
       <c r="JH90" s="11">
         <v>300</v>
       </c>
+      <c r="JI90" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>110</v>
       </c>
@@ -69330,10 +69579,13 @@
         <v>101100</v>
       </c>
       <c r="JH91" s="11">
-        <v>103100</v>
+        <v>103300</v>
+      </c>
+      <c r="JI91" s="11">
+        <v>105900</v>
       </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>111</v>
       </c>
@@ -70134,10 +70386,13 @@
         <v>34600</v>
       </c>
       <c r="JH92" s="11">
-        <v>33700</v>
+        <v>33900</v>
+      </c>
+      <c r="JI92" s="11">
+        <v>35600</v>
       </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>112</v>
       </c>
@@ -70938,10 +71193,13 @@
         <v>20200</v>
       </c>
       <c r="JH93" s="11">
-        <v>19300</v>
+        <v>19500</v>
+      </c>
+      <c r="JI93" s="11">
+        <v>21100</v>
       </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>113</v>
       </c>
@@ -71744,8 +72002,11 @@
       <c r="JH94" s="11">
         <v>14400</v>
       </c>
+      <c r="JI94" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>114</v>
       </c>
@@ -72548,8 +72809,11 @@
       <c r="JH95" s="11">
         <v>69400</v>
       </c>
+      <c r="JI95" s="11">
+        <v>70300</v>
+      </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>115</v>
       </c>
@@ -73352,8 +73616,11 @@
       <c r="JH96" s="11">
         <v>21300</v>
       </c>
+      <c r="JI96" s="11">
+        <v>22300</v>
+      </c>
     </row>
-    <row r="97" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>116</v>
       </c>
@@ -74156,8 +74423,11 @@
       <c r="JH97" s="11">
         <v>48100</v>
       </c>
+      <c r="JI97" s="11">
+        <v>48000</v>
+      </c>
     </row>
-    <row r="98" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>117</v>
       </c>
@@ -74960,8 +75230,11 @@
       <c r="JH98" s="11">
         <v>7000</v>
       </c>
+      <c r="JI98" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="99" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>118</v>
       </c>
@@ -75764,8 +76037,11 @@
       <c r="JH99" s="11">
         <v>38800</v>
       </c>
+      <c r="JI99" s="11">
+        <v>38700</v>
+      </c>
     </row>
-    <row r="100" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>119</v>
       </c>
@@ -76568,8 +76844,11 @@
       <c r="JH100" s="11">
         <v>2300</v>
       </c>
+      <c r="JI100" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="102" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>228</v>
       </c>
@@ -76582,7 +76861,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>16</v>
       </c>
@@ -76595,7 +76874,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>229</v>
       </c>
@@ -76608,7 +76887,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>230</v>
       </c>
@@ -76621,7 +76900,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>231</v>
       </c>
@@ -76634,7 +76913,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>232</v>
       </c>
@@ -76647,7 +76926,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>233</v>
       </c>
@@ -76660,7 +76939,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>234</v>
       </c>

--- a/lowe/edd/data/SANF$HWS.xlsx
+++ b/lowe/edd/data/SANF$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI109"/>
+  <dimension ref="A1:JJ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,12 +1744,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1777,12 +1777,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2600,11 +2600,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3408,10 +3411,13 @@
         <v>995100</v>
       </c>
       <c r="JI9" s="11">
-        <v>998200</v>
+        <v>998700</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1004200</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4215,10 +4221,13 @@
         <v>946900</v>
       </c>
       <c r="JI10" s="11">
-        <v>958300</v>
+        <v>958800</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>966500</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5024,8 +5033,11 @@
       <c r="JI11" s="11">
         <v>39900</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>37800</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5831,8 +5843,11 @@
       <c r="JI12" s="12">
         <v>0.04</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6636,10 +6651,13 @@
         <v>1100500</v>
       </c>
       <c r="JI13" s="11">
-        <v>1105700</v>
+        <v>1106100</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1121100</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7445,8 +7463,11 @@
       <c r="JI14" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8250,10 +8271,13 @@
         <v>1098900</v>
       </c>
       <c r="JI15" s="11">
-        <v>1104100</v>
+        <v>1104500</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>1119500</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9057,10 +9081,13 @@
         <v>979200</v>
       </c>
       <c r="JI16" s="11">
-        <v>981900</v>
+        <v>982300</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>995100</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9864,10 +9891,13 @@
         <v>79800</v>
       </c>
       <c r="JI17" s="11">
-        <v>80500</v>
+        <v>80300</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>80600</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10673,8 +10703,11 @@
       <c r="JI18" s="11">
         <v>43100</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>43500</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11480,8 +11513,11 @@
       <c r="JI19" s="11">
         <v>100</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12287,8 +12323,11 @@
       <c r="JI20" s="11">
         <v>43000</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>43400</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -13092,10 +13131,13 @@
         <v>21100</v>
       </c>
       <c r="JI21" s="11">
-        <v>21400</v>
+        <v>21700</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>21800</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13899,10 +13941,13 @@
         <v>37100</v>
       </c>
       <c r="JI22" s="11">
-        <v>37400</v>
+        <v>37200</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>37100</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14706,10 +14751,13 @@
         <v>18600</v>
       </c>
       <c r="JI23" s="11">
-        <v>18800</v>
+        <v>18700</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>18500</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15513,10 +15561,13 @@
         <v>18500</v>
       </c>
       <c r="JI24" s="11">
+        <v>18500</v>
+      </c>
+      <c r="JJ24" s="11">
         <v>18600</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16320,10 +16371,13 @@
         <v>1019100</v>
       </c>
       <c r="JI25" s="11">
-        <v>1023600</v>
+        <v>1024200</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>1038900</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -17127,10 +17181,13 @@
         <v>899400</v>
       </c>
       <c r="JI26" s="11">
-        <v>901400</v>
+        <v>902000</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>914500</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17934,10 +17991,13 @@
         <v>129700</v>
       </c>
       <c r="JI27" s="11">
-        <v>131100</v>
+        <v>131000</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>131400</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18743,8 +18803,11 @@
       <c r="JI28" s="11">
         <v>21500</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>21700</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19550,8 +19613,11 @@
       <c r="JI29" s="11">
         <v>10100</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20357,8 +20423,11 @@
       <c r="JI30" s="11">
         <v>8700</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21162,10 +21231,13 @@
         <v>68100</v>
       </c>
       <c r="JI31" s="11">
-        <v>69300</v>
+        <v>69100</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>69200</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -21971,8 +22043,11 @@
       <c r="JI32" s="11">
         <v>16600</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22778,8 +22853,11 @@
       <c r="JI33" s="11">
         <v>5800</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23583,10 +23661,13 @@
         <v>7000</v>
       </c>
       <c r="JI34" s="11">
+        <v>7100</v>
+      </c>
+      <c r="JJ34" s="11">
         <v>7200</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24390,10 +24471,13 @@
         <v>7400</v>
       </c>
       <c r="JI35" s="11">
-        <v>7600</v>
+        <v>7400</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>7700</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25197,10 +25281,13 @@
         <v>3800</v>
       </c>
       <c r="JI36" s="11">
-        <v>4000</v>
+        <v>4200</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>4300</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -26004,10 +26091,13 @@
         <v>40000</v>
       </c>
       <c r="JI37" s="11">
-        <v>40300</v>
+        <v>40400</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>40500</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26813,8 +26903,11 @@
       <c r="JI38" s="11">
         <v>5200</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41</v>
       </c>
@@ -27618,10 +27711,13 @@
         <v>34900</v>
       </c>
       <c r="JI39" s="11">
-        <v>35100</v>
+        <v>35200</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>35300</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>42</v>
       </c>
@@ -28427,8 +28523,11 @@
       <c r="JI40" s="11">
         <v>9000</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44</v>
       </c>
@@ -29234,8 +29333,11 @@
       <c r="JI41" s="11">
         <v>8400</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45</v>
       </c>
@@ -30039,10 +30141,13 @@
         <v>111700</v>
       </c>
       <c r="JI42" s="11">
-        <v>110700</v>
+        <v>110900</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>111600</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>46</v>
       </c>
@@ -30848,8 +30953,11 @@
       <c r="JI43" s="11">
         <v>25400</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>25500</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>49</v>
       </c>
@@ -31655,8 +31763,11 @@
       <c r="JI44" s="11">
         <v>4400</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>51</v>
       </c>
@@ -32460,10 +32571,13 @@
         <v>84000</v>
       </c>
       <c r="JI45" s="11">
-        <v>82500</v>
+        <v>83200</v>
+      </c>
+      <c r="JJ45" s="11">
+        <v>84200</v>
       </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>52</v>
       </c>
@@ -33267,10 +33381,13 @@
         <v>61900</v>
       </c>
       <c r="JI46" s="11">
-        <v>61300</v>
+        <v>61800</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>62900</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>53</v>
       </c>
@@ -34074,10 +34191,13 @@
         <v>27400</v>
       </c>
       <c r="JI47" s="11">
-        <v>27200</v>
+        <v>27500</v>
+      </c>
+      <c r="JJ47" s="11">
+        <v>27500</v>
       </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>54</v>
       </c>
@@ -34881,10 +35001,13 @@
         <v>13100</v>
       </c>
       <c r="JI48" s="11">
-        <v>13000</v>
+        <v>13100</v>
+      </c>
+      <c r="JJ48" s="11">
+        <v>13100</v>
       </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35688,10 +35811,13 @@
         <v>7000</v>
       </c>
       <c r="JI49" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JJ49" s="11">
         <v>6900</v>
       </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -36495,10 +36621,13 @@
         <v>24200</v>
       </c>
       <c r="JI50" s="11">
-        <v>23900</v>
+        <v>24000</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>24900</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>58</v>
       </c>
@@ -37302,10 +37431,13 @@
         <v>10300</v>
       </c>
       <c r="JI51" s="11">
-        <v>10200</v>
+        <v>10300</v>
+      </c>
+      <c r="JJ51" s="11">
+        <v>10500</v>
       </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>61</v>
       </c>
@@ -38109,10 +38241,13 @@
         <v>22100</v>
       </c>
       <c r="JI52" s="11">
-        <v>21200</v>
+        <v>21400</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>21300</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>62</v>
       </c>
@@ -38916,10 +39051,13 @@
         <v>17300</v>
       </c>
       <c r="JI53" s="11">
-        <v>17100</v>
+        <v>17200</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>17500</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>64</v>
       </c>
@@ -39723,10 +39861,13 @@
         <v>294000</v>
       </c>
       <c r="JI54" s="11">
-        <v>295800</v>
+        <v>295700</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>301700</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>65</v>
       </c>
@@ -40530,10 +40671,13 @@
         <v>218600</v>
       </c>
       <c r="JI55" s="11">
-        <v>219100</v>
+        <v>219800</v>
+      </c>
+      <c r="JJ55" s="11">
+        <v>224300</v>
       </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>66</v>
       </c>
@@ -41337,10 +41481,13 @@
         <v>17500</v>
       </c>
       <c r="JI56" s="11">
-        <v>17300</v>
+        <v>17200</v>
+      </c>
+      <c r="JJ56" s="11">
+        <v>17800</v>
       </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>67</v>
       </c>
@@ -42146,8 +42293,11 @@
       <c r="JI57" s="11">
         <v>11800</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>11900</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>68</v>
       </c>
@@ -42953,8 +43103,11 @@
       <c r="JI58" s="11">
         <v>16200</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>16300</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>69</v>
       </c>
@@ -43758,10 +43911,13 @@
         <v>83500</v>
       </c>
       <c r="JI59" s="11">
-        <v>84600</v>
+        <v>85300</v>
+      </c>
+      <c r="JJ59" s="11">
+        <v>86900</v>
       </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44567,8 +44723,11 @@
       <c r="JI60" s="11">
         <v>23300</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45372,10 +45531,13 @@
         <v>51900</v>
       </c>
       <c r="JI61" s="11">
-        <v>53400</v>
+        <v>52600</v>
+      </c>
+      <c r="JJ61" s="11">
+        <v>54100</v>
       </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>73</v>
       </c>
@@ -46179,10 +46341,13 @@
         <v>49500</v>
       </c>
       <c r="JI62" s="11">
-        <v>50900</v>
+        <v>50100</v>
+      </c>
+      <c r="JJ62" s="11">
+        <v>51600</v>
       </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>74</v>
       </c>
@@ -46986,10 +47151,13 @@
         <v>14400</v>
       </c>
       <c r="JI63" s="11">
-        <v>15000</v>
+        <v>14800</v>
+      </c>
+      <c r="JJ63" s="11">
+        <v>15600</v>
       </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47793,10 +47961,13 @@
         <v>9400</v>
       </c>
       <c r="JI64" s="11">
-        <v>9500</v>
+        <v>9400</v>
+      </c>
+      <c r="JJ64" s="11">
+        <v>9400</v>
       </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>76</v>
       </c>
@@ -48602,8 +48773,11 @@
       <c r="JI65" s="11">
         <v>13600</v>
       </c>
+      <c r="JJ65" s="11">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>80</v>
       </c>
@@ -49409,8 +49583,11 @@
       <c r="JI66" s="11">
         <v>142200</v>
       </c>
+      <c r="JJ66" s="11">
+        <v>144800</v>
+      </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>81</v>
       </c>
@@ -50216,8 +50393,11 @@
       <c r="JI67" s="11">
         <v>28900</v>
       </c>
+      <c r="JJ67" s="11">
+        <v>30600</v>
+      </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>82</v>
       </c>
@@ -51021,10 +51201,13 @@
         <v>12300</v>
       </c>
       <c r="JI68" s="11">
-        <v>13500</v>
+        <v>13100</v>
+      </c>
+      <c r="JJ68" s="11">
+        <v>13900</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>84</v>
       </c>
@@ -51830,8 +52013,11 @@
       <c r="JI69" s="11">
         <v>113300</v>
       </c>
+      <c r="JJ69" s="11">
+        <v>114200</v>
+      </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>85</v>
       </c>
@@ -52635,10 +52821,13 @@
         <v>38000</v>
       </c>
       <c r="JI70" s="11">
-        <v>37700</v>
+        <v>37400</v>
+      </c>
+      <c r="JJ70" s="11">
+        <v>37800</v>
       </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>86</v>
       </c>
@@ -53444,8 +53633,11 @@
       <c r="JI71" s="11">
         <v>13700</v>
       </c>
+      <c r="JJ71" s="11">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>87</v>
       </c>
@@ -54249,10 +54441,13 @@
         <v>9300</v>
       </c>
       <c r="JI72" s="11">
-        <v>9200</v>
+        <v>9100</v>
+      </c>
+      <c r="JJ72" s="11">
+        <v>9000</v>
       </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>88</v>
       </c>
@@ -55056,10 +55251,13 @@
         <v>53000</v>
       </c>
       <c r="JI73" s="11">
-        <v>52700</v>
+        <v>53100</v>
+      </c>
+      <c r="JJ73" s="11">
+        <v>53800</v>
       </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>89</v>
       </c>
@@ -55863,10 +56061,13 @@
         <v>104300</v>
       </c>
       <c r="JI74" s="11">
-        <v>106700</v>
+        <v>106400</v>
+      </c>
+      <c r="JJ74" s="11">
+        <v>107300</v>
       </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>90</v>
       </c>
@@ -56670,10 +56871,13 @@
         <v>13500</v>
       </c>
       <c r="JI75" s="11">
-        <v>14000</v>
+        <v>13700</v>
+      </c>
+      <c r="JJ75" s="11">
+        <v>13600</v>
       </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>91</v>
       </c>
@@ -57479,8 +57683,11 @@
       <c r="JI76" s="11">
         <v>5700</v>
       </c>
+      <c r="JJ76" s="11">
+        <v>5900</v>
+      </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>93</v>
       </c>
@@ -58286,8 +58493,11 @@
       <c r="JI77" s="11">
         <v>92700</v>
       </c>
+      <c r="JJ77" s="11">
+        <v>93700</v>
+      </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>94</v>
       </c>
@@ -59091,10 +59301,13 @@
         <v>14200</v>
       </c>
       <c r="JI78" s="11">
-        <v>14100</v>
+        <v>13900</v>
+      </c>
+      <c r="JJ78" s="11">
+        <v>14000</v>
       </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>95</v>
       </c>
@@ -59898,10 +60111,13 @@
         <v>76600</v>
       </c>
       <c r="JI79" s="11">
-        <v>78600</v>
+        <v>78800</v>
+      </c>
+      <c r="JJ79" s="11">
+        <v>79700</v>
       </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>96</v>
       </c>
@@ -60707,8 +60923,11 @@
       <c r="JI80" s="11">
         <v>6700</v>
       </c>
+      <c r="JJ80" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>97</v>
       </c>
@@ -61512,10 +61731,13 @@
         <v>62800</v>
       </c>
       <c r="JI81" s="11">
-        <v>64100</v>
+        <v>63500</v>
+      </c>
+      <c r="JJ81" s="11">
+        <v>64200</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>98</v>
       </c>
@@ -62319,10 +62541,13 @@
         <v>37000</v>
       </c>
       <c r="JI82" s="11">
-        <v>38300</v>
+        <v>37700</v>
+      </c>
+      <c r="JJ82" s="11">
+        <v>38100</v>
       </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>99</v>
       </c>
@@ -63128,8 +63353,11 @@
       <c r="JI83" s="11">
         <v>25800</v>
       </c>
+      <c r="JJ83" s="11">
+        <v>26100</v>
+      </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -63933,10 +64161,13 @@
         <v>33900</v>
       </c>
       <c r="JI84" s="11">
-        <v>32400</v>
+        <v>32600</v>
+      </c>
+      <c r="JJ84" s="11">
+        <v>33500</v>
       </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>103</v>
       </c>
@@ -64740,10 +64971,13 @@
         <v>9800</v>
       </c>
       <c r="JI85" s="11">
-        <v>9400</v>
+        <v>9700</v>
+      </c>
+      <c r="JJ85" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>104</v>
       </c>
@@ -65547,10 +65781,13 @@
         <v>18100</v>
       </c>
       <c r="JI86" s="11">
-        <v>17200</v>
+        <v>17500</v>
+      </c>
+      <c r="JJ86" s="11">
+        <v>17700</v>
       </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>106</v>
       </c>
@@ -66356,8 +66593,11 @@
       <c r="JI87" s="11">
         <v>122200</v>
       </c>
+      <c r="JJ87" s="11">
+        <v>124400</v>
+      </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>107</v>
       </c>
@@ -67163,8 +67403,11 @@
       <c r="JI88" s="11">
         <v>16300</v>
       </c>
+      <c r="JJ88" s="11">
+        <v>16400</v>
+      </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>108</v>
       </c>
@@ -67970,8 +68213,11 @@
       <c r="JI89" s="11">
         <v>16000</v>
       </c>
+      <c r="JJ89" s="11">
+        <v>16100</v>
+      </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>109</v>
       </c>
@@ -68777,8 +69023,11 @@
       <c r="JI90" s="11">
         <v>300</v>
       </c>
+      <c r="JJ90" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>110</v>
       </c>
@@ -69584,8 +69833,11 @@
       <c r="JI91" s="11">
         <v>105900</v>
       </c>
+      <c r="JJ91" s="11">
+        <v>108000</v>
+      </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>111</v>
       </c>
@@ -70391,8 +70643,11 @@
       <c r="JI92" s="11">
         <v>35600</v>
       </c>
+      <c r="JJ92" s="11">
+        <v>37200</v>
+      </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>112</v>
       </c>
@@ -71198,8 +71453,11 @@
       <c r="JI93" s="11">
         <v>21100</v>
       </c>
+      <c r="JJ93" s="11">
+        <v>22700</v>
+      </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>113</v>
       </c>
@@ -72005,8 +72263,11 @@
       <c r="JI94" s="11">
         <v>14500</v>
       </c>
+      <c r="JJ94" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>114</v>
       </c>
@@ -72812,8 +73073,11 @@
       <c r="JI95" s="11">
         <v>70300</v>
       </c>
+      <c r="JJ95" s="11">
+        <v>70800</v>
+      </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>115</v>
       </c>
@@ -73619,8 +73883,11 @@
       <c r="JI96" s="11">
         <v>22300</v>
       </c>
+      <c r="JJ96" s="11">
+        <v>23200</v>
+      </c>
     </row>
-    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>116</v>
       </c>
@@ -74426,8 +74693,11 @@
       <c r="JI97" s="11">
         <v>48000</v>
       </c>
+      <c r="JJ97" s="11">
+        <v>47600</v>
+      </c>
     </row>
-    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>117</v>
       </c>
@@ -75233,8 +75503,11 @@
       <c r="JI98" s="11">
         <v>7100</v>
       </c>
+      <c r="JJ98" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>118</v>
       </c>
@@ -76040,8 +76313,11 @@
       <c r="JI99" s="11">
         <v>38700</v>
       </c>
+      <c r="JJ99" s="11">
+        <v>38300</v>
+      </c>
     </row>
-    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>119</v>
       </c>
@@ -76847,8 +77123,11 @@
       <c r="JI100" s="11">
         <v>2200</v>
       </c>
+      <c r="JJ100" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>228</v>
       </c>
@@ -76861,7 +77140,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>16</v>
       </c>
@@ -76874,7 +77153,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>229</v>
       </c>
@@ -76887,7 +77166,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>230</v>
       </c>
@@ -76900,7 +77179,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>231</v>
       </c>
@@ -76913,7 +77192,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>232</v>
       </c>
@@ -76926,7 +77205,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>233</v>
       </c>
@@ -76939,7 +77218,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>234</v>
       </c>

--- a/lowe/edd/data/SANF$HWS.xlsx
+++ b/lowe/edd/data/SANF$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <t>70-710000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Arts, Entertainment &amp; Recreation</t>
+    <t xml:space="preserve">        Arts, Entertainment &amp; Recreation</t>
   </si>
   <si>
     <t>70-711000</t>
@@ -548,19 +548,19 @@
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Food Services &amp; Drinking Places</t>
+    <t xml:space="preserve">          Food Services &amp; Drinking Places</t>
   </si>
   <si>
     <t>70-722300</t>
   </si>
   <si>
-    <t xml:space="preserve">              Special Food Services</t>
+    <t xml:space="preserve">            Special Food Services</t>
   </si>
   <si>
     <t>722511, 722590</t>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ109"/>
+  <dimension ref="A1:JL109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,12 +1744,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1777,12 +1777,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2603,11 +2603,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3414,10 +3420,16 @@
         <v>998700</v>
       </c>
       <c r="JJ9" s="11">
-        <v>1004200</v>
+        <v>1004600</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>1010400</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1012200</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4224,10 +4236,16 @@
         <v>958800</v>
       </c>
       <c r="JJ10" s="11">
-        <v>966500</v>
+        <v>966900</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>978100</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>982500</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5034,10 +5052,16 @@
         <v>39900</v>
       </c>
       <c r="JJ11" s="11">
-        <v>37800</v>
+        <v>37700</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>32300</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>29700</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5846,8 +5870,14 @@
       <c r="JJ12" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6654,10 +6684,16 @@
         <v>1106100</v>
       </c>
       <c r="JJ13" s="11">
-        <v>1121100</v>
+        <v>1121500</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>1131200</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1136900</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7466,8 +7502,14 @@
       <c r="JJ14" s="11">
         <v>1600</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8274,10 +8316,16 @@
         <v>1104500</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1119500</v>
+        <v>1119900</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1129500</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1135300</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9086,8 +9134,14 @@
       <c r="JJ16" s="11">
         <v>995100</v>
       </c>
+      <c r="JK16" s="11">
+        <v>1004000</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1010100</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9894,10 +9948,16 @@
         <v>80300</v>
       </c>
       <c r="JJ17" s="11">
-        <v>80600</v>
+        <v>80200</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>80300</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>80000</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10704,10 +10764,16 @@
         <v>43100</v>
       </c>
       <c r="JJ18" s="11">
-        <v>43500</v>
+        <v>43300</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>43400</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>43100</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11516,8 +11582,14 @@
       <c r="JJ19" s="11">
         <v>100</v>
       </c>
+      <c r="JK19" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12324,10 +12396,16 @@
         <v>43000</v>
       </c>
       <c r="JJ20" s="11">
-        <v>43400</v>
+        <v>43200</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>43300</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>43000</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -13134,10 +13212,16 @@
         <v>21700</v>
       </c>
       <c r="JJ21" s="11">
-        <v>21800</v>
+        <v>21700</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>21400</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>21300</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13944,10 +14028,16 @@
         <v>37200</v>
       </c>
       <c r="JJ22" s="11">
-        <v>37100</v>
+        <v>36900</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>36900</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>36900</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14754,10 +14844,16 @@
         <v>18700</v>
       </c>
       <c r="JJ23" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL23" s="11">
         <v>18500</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15564,10 +15660,16 @@
         <v>18500</v>
       </c>
       <c r="JJ24" s="11">
-        <v>18600</v>
+        <v>18500</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>18500</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>18400</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16374,10 +16476,16 @@
         <v>1024200</v>
       </c>
       <c r="JJ25" s="11">
-        <v>1038900</v>
+        <v>1039700</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>1049200</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>1055300</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -17184,10 +17292,16 @@
         <v>902000</v>
       </c>
       <c r="JJ26" s="11">
-        <v>914500</v>
+        <v>914900</v>
+      </c>
+      <c r="JK26" s="11">
+        <v>923700</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>930100</v>
       </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17994,10 +18108,16 @@
         <v>131000</v>
       </c>
       <c r="JJ27" s="11">
-        <v>131400</v>
+        <v>132000</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>135300</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>137500</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18806,8 +18926,14 @@
       <c r="JJ28" s="11">
         <v>21700</v>
       </c>
+      <c r="JK28" s="11">
+        <v>21600</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>22000</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19616,8 +19742,14 @@
       <c r="JJ29" s="11">
         <v>10100</v>
       </c>
+      <c r="JK29" s="11">
+        <v>10200</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -20426,8 +20558,14 @@
       <c r="JJ30" s="11">
         <v>8700</v>
       </c>
+      <c r="JK30" s="11">
+        <v>8700</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -21234,10 +21372,16 @@
         <v>69100</v>
       </c>
       <c r="JJ31" s="11">
-        <v>69200</v>
+        <v>69500</v>
+      </c>
+      <c r="JK31" s="11">
+        <v>71200</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>72200</v>
       </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -22046,8 +22190,14 @@
       <c r="JJ32" s="11">
         <v>16700</v>
       </c>
+      <c r="JK32" s="11">
+        <v>16900</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>16900</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -22854,10 +23004,16 @@
         <v>5800</v>
       </c>
       <c r="JJ33" s="11">
-        <v>5800</v>
+        <v>5900</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>6000</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>6200</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -23666,8 +23822,14 @@
       <c r="JJ34" s="11">
         <v>7200</v>
       </c>
+      <c r="JK34" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24476,8 +24638,14 @@
       <c r="JJ35" s="11">
         <v>7700</v>
       </c>
+      <c r="JK35" s="11">
+        <v>8300</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -25286,8 +25454,14 @@
       <c r="JJ36" s="11">
         <v>4300</v>
       </c>
+      <c r="JK36" s="11">
+        <v>4300</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -26094,10 +26268,16 @@
         <v>40400</v>
       </c>
       <c r="JJ37" s="11">
-        <v>40500</v>
+        <v>40800</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>42500</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>43300</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>40</v>
       </c>
@@ -26904,10 +27084,16 @@
         <v>5200</v>
       </c>
       <c r="JJ38" s="11">
+        <v>5100</v>
+      </c>
+      <c r="JK38" s="11">
         <v>5200</v>
       </c>
+      <c r="JL38" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>41</v>
       </c>
@@ -27714,10 +27900,16 @@
         <v>35200</v>
       </c>
       <c r="JJ39" s="11">
-        <v>35300</v>
+        <v>35700</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>37300</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>38100</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>42</v>
       </c>
@@ -28526,8 +28718,14 @@
       <c r="JJ40" s="11">
         <v>9100</v>
       </c>
+      <c r="JK40" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44</v>
       </c>
@@ -29334,10 +29532,16 @@
         <v>8400</v>
       </c>
       <c r="JJ41" s="11">
-        <v>8300</v>
+        <v>8500</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>9500</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45</v>
       </c>
@@ -30144,10 +30348,16 @@
         <v>110900</v>
       </c>
       <c r="JJ42" s="11">
-        <v>111600</v>
+        <v>111700</v>
+      </c>
+      <c r="JK42" s="11">
+        <v>112600</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>113600</v>
       </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>46</v>
       </c>
@@ -30956,8 +31166,14 @@
       <c r="JJ43" s="11">
         <v>25500</v>
       </c>
+      <c r="JK43" s="11">
+        <v>25300</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>25400</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>49</v>
       </c>
@@ -31766,8 +31982,14 @@
       <c r="JJ44" s="11">
         <v>4400</v>
       </c>
+      <c r="JK44" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>51</v>
       </c>
@@ -32576,8 +32798,14 @@
       <c r="JJ45" s="11">
         <v>84200</v>
       </c>
+      <c r="JK45" s="11">
+        <v>83400</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>83800</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>52</v>
       </c>
@@ -33386,8 +33614,14 @@
       <c r="JJ46" s="11">
         <v>62900</v>
       </c>
+      <c r="JK46" s="11">
+        <v>62100</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>62300</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>53</v>
       </c>
@@ -34196,8 +34430,14 @@
       <c r="JJ47" s="11">
         <v>27500</v>
       </c>
+      <c r="JK47" s="11">
+        <v>27100</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>27200</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>54</v>
       </c>
@@ -35006,8 +35246,14 @@
       <c r="JJ48" s="11">
         <v>13100</v>
       </c>
+      <c r="JK48" s="11">
+        <v>13000</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>13100</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>55</v>
       </c>
@@ -35816,8 +36062,14 @@
       <c r="JJ49" s="11">
         <v>6900</v>
       </c>
+      <c r="JK49" s="11">
+        <v>6700</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>6700</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -36626,8 +36878,14 @@
       <c r="JJ50" s="11">
         <v>24900</v>
       </c>
+      <c r="JK50" s="11">
+        <v>24700</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>24800</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>58</v>
       </c>
@@ -37436,8 +37694,14 @@
       <c r="JJ51" s="11">
         <v>10500</v>
       </c>
+      <c r="JK51" s="11">
+        <v>10300</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>10300</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>61</v>
       </c>
@@ -38246,8 +38510,14 @@
       <c r="JJ52" s="11">
         <v>21300</v>
       </c>
+      <c r="JK52" s="11">
+        <v>21300</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>21500</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>62</v>
       </c>
@@ -39054,10 +39324,16 @@
         <v>17200</v>
       </c>
       <c r="JJ53" s="11">
-        <v>17500</v>
+        <v>17200</v>
+      </c>
+      <c r="JK53" s="11">
+        <v>17200</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>17200</v>
       </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>64</v>
       </c>
@@ -39864,10 +40140,16 @@
         <v>295700</v>
       </c>
       <c r="JJ54" s="11">
-        <v>301700</v>
+        <v>301100</v>
+      </c>
+      <c r="JK54" s="11">
+        <v>305200</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>307100</v>
       </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>65</v>
       </c>
@@ -40674,10 +40956,16 @@
         <v>219800</v>
       </c>
       <c r="JJ55" s="11">
-        <v>224300</v>
+        <v>223800</v>
+      </c>
+      <c r="JK55" s="11">
+        <v>228500</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>231600</v>
       </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>66</v>
       </c>
@@ -41486,8 +41774,14 @@
       <c r="JJ56" s="11">
         <v>17800</v>
       </c>
+      <c r="JK56" s="11">
+        <v>18000</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>18000</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>67</v>
       </c>
@@ -42294,10 +42588,16 @@
         <v>11800</v>
       </c>
       <c r="JJ57" s="11">
-        <v>11900</v>
+        <v>12100</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>12400</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>12400</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>68</v>
       </c>
@@ -43106,8 +43406,14 @@
       <c r="JJ58" s="11">
         <v>16300</v>
       </c>
+      <c r="JK58" s="11">
+        <v>16600</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>16700</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>69</v>
       </c>
@@ -43914,10 +44220,16 @@
         <v>85300</v>
       </c>
       <c r="JJ59" s="11">
-        <v>86900</v>
+        <v>86600</v>
+      </c>
+      <c r="JK59" s="11">
+        <v>87800</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>89400</v>
       </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>71</v>
       </c>
@@ -44726,8 +45038,14 @@
       <c r="JJ60" s="11">
         <v>23300</v>
       </c>
+      <c r="JK60" s="11">
+        <v>23500</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>23500</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -45534,10 +45852,16 @@
         <v>52600</v>
       </c>
       <c r="JJ61" s="11">
-        <v>54100</v>
+        <v>54000</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>53200</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>52000</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>73</v>
       </c>
@@ -46344,10 +46668,16 @@
         <v>50100</v>
       </c>
       <c r="JJ62" s="11">
-        <v>51600</v>
+        <v>51500</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>50800</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>49600</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>74</v>
       </c>
@@ -47154,10 +47484,16 @@
         <v>14800</v>
       </c>
       <c r="JJ63" s="11">
-        <v>15600</v>
+        <v>15800</v>
+      </c>
+      <c r="JK63" s="11">
+        <v>15700</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>15300</v>
       </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>75</v>
       </c>
@@ -47964,10 +48300,16 @@
         <v>9400</v>
       </c>
       <c r="JJ64" s="11">
-        <v>9400</v>
+        <v>9500</v>
+      </c>
+      <c r="JK64" s="11">
+        <v>9500</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>9500</v>
       </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>76</v>
       </c>
@@ -48776,8 +49118,14 @@
       <c r="JJ65" s="11">
         <v>13600</v>
       </c>
+      <c r="JK65" s="11">
+        <v>13400</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>13300</v>
+      </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>80</v>
       </c>
@@ -49584,10 +49932,16 @@
         <v>142200</v>
       </c>
       <c r="JJ66" s="11">
+        <v>144300</v>
+      </c>
+      <c r="JK66" s="11">
         <v>144800</v>
       </c>
+      <c r="JL66" s="11">
+        <v>144500</v>
+      </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>81</v>
       </c>
@@ -50394,10 +50748,16 @@
         <v>28900</v>
       </c>
       <c r="JJ67" s="11">
-        <v>30600</v>
+        <v>30500</v>
+      </c>
+      <c r="JK67" s="11">
+        <v>30800</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>30800</v>
       </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>82</v>
       </c>
@@ -51204,10 +51564,16 @@
         <v>13100</v>
       </c>
       <c r="JJ68" s="11">
+        <v>13800</v>
+      </c>
+      <c r="JK68" s="11">
         <v>13900</v>
       </c>
+      <c r="JL68" s="11">
+        <v>13800</v>
+      </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>84</v>
       </c>
@@ -52014,10 +52380,16 @@
         <v>113300</v>
       </c>
       <c r="JJ69" s="11">
-        <v>114200</v>
+        <v>113800</v>
+      </c>
+      <c r="JK69" s="11">
+        <v>114000</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>113700</v>
       </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>85</v>
       </c>
@@ -52824,10 +53196,16 @@
         <v>37400</v>
       </c>
       <c r="JJ70" s="11">
-        <v>37800</v>
+        <v>36800</v>
+      </c>
+      <c r="JK70" s="11">
+        <v>37100</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>37400</v>
       </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>86</v>
       </c>
@@ -53634,10 +54012,16 @@
         <v>13700</v>
       </c>
       <c r="JJ71" s="11">
-        <v>13600</v>
+        <v>13700</v>
+      </c>
+      <c r="JK71" s="11">
+        <v>13700</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>13700</v>
       </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>87</v>
       </c>
@@ -54444,10 +54828,16 @@
         <v>9100</v>
       </c>
       <c r="JJ72" s="11">
+        <v>9100</v>
+      </c>
+      <c r="JK72" s="11">
+        <v>9100</v>
+      </c>
+      <c r="JL72" s="11">
         <v>9000</v>
       </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>88</v>
       </c>
@@ -55254,10 +55644,16 @@
         <v>53100</v>
       </c>
       <c r="JJ73" s="11">
-        <v>53800</v>
+        <v>54200</v>
+      </c>
+      <c r="JK73" s="11">
+        <v>54100</v>
+      </c>
+      <c r="JL73" s="11">
+        <v>53600</v>
       </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>89</v>
       </c>
@@ -56064,10 +56460,16 @@
         <v>106400</v>
       </c>
       <c r="JJ74" s="11">
+        <v>107500</v>
+      </c>
+      <c r="JK74" s="11">
         <v>107300</v>
       </c>
+      <c r="JL74" s="11">
+        <v>108200</v>
+      </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>90</v>
       </c>
@@ -56876,8 +57278,14 @@
       <c r="JJ75" s="11">
         <v>13600</v>
       </c>
+      <c r="JK75" s="11">
+        <v>13200</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>91</v>
       </c>
@@ -57686,8 +58094,14 @@
       <c r="JJ76" s="11">
         <v>5900</v>
       </c>
+      <c r="JK76" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>93</v>
       </c>
@@ -58494,10 +58908,16 @@
         <v>92700</v>
       </c>
       <c r="JJ77" s="11">
-        <v>93700</v>
+        <v>93900</v>
+      </c>
+      <c r="JK77" s="11">
+        <v>94100</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>95000</v>
       </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>94</v>
       </c>
@@ -59306,8 +59726,14 @@
       <c r="JJ78" s="11">
         <v>14000</v>
       </c>
+      <c r="JK78" s="11">
+        <v>14000</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>14100</v>
+      </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>95</v>
       </c>
@@ -60114,10 +60540,16 @@
         <v>78800</v>
       </c>
       <c r="JJ79" s="11">
-        <v>79700</v>
+        <v>79900</v>
+      </c>
+      <c r="JK79" s="11">
+        <v>80100</v>
+      </c>
+      <c r="JL79" s="11">
+        <v>80900</v>
       </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>96</v>
       </c>
@@ -60926,8 +61358,14 @@
       <c r="JJ80" s="11">
         <v>7000</v>
       </c>
+      <c r="JK80" s="11">
+        <v>6800</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>97</v>
       </c>
@@ -61734,10 +62172,16 @@
         <v>63500</v>
       </c>
       <c r="JJ81" s="11">
-        <v>64200</v>
+        <v>64300</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>65100</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>65700</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>98</v>
       </c>
@@ -62544,10 +62988,16 @@
         <v>37700</v>
       </c>
       <c r="JJ82" s="11">
-        <v>38100</v>
+        <v>38300</v>
+      </c>
+      <c r="JK82" s="11">
+        <v>38700</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>39200</v>
       </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>99</v>
       </c>
@@ -63354,10 +63804,16 @@
         <v>25800</v>
       </c>
       <c r="JJ83" s="11">
-        <v>26100</v>
+        <v>26000</v>
+      </c>
+      <c r="JK83" s="11">
+        <v>26400</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>26500</v>
       </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -64164,10 +64620,16 @@
         <v>32600</v>
       </c>
       <c r="JJ84" s="11">
-        <v>33500</v>
+        <v>34100</v>
+      </c>
+      <c r="JK84" s="11">
+        <v>35100</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>35400</v>
       </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>103</v>
       </c>
@@ -64974,10 +65436,16 @@
         <v>9700</v>
       </c>
       <c r="JJ85" s="11">
-        <v>9900</v>
+        <v>10100</v>
+      </c>
+      <c r="JK85" s="11">
+        <v>10200</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>10300</v>
       </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>104</v>
       </c>
@@ -65784,10 +66252,16 @@
         <v>17500</v>
       </c>
       <c r="JJ86" s="11">
-        <v>17700</v>
+        <v>18000</v>
+      </c>
+      <c r="JK86" s="11">
+        <v>18300</v>
+      </c>
+      <c r="JL86" s="11">
+        <v>18400</v>
       </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>106</v>
       </c>
@@ -66594,10 +67068,16 @@
         <v>122200</v>
       </c>
       <c r="JJ87" s="11">
-        <v>124400</v>
+        <v>124800</v>
+      </c>
+      <c r="JK87" s="11">
+        <v>125500</v>
+      </c>
+      <c r="JL87" s="11">
+        <v>125200</v>
       </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>107</v>
       </c>
@@ -67406,8 +67886,14 @@
       <c r="JJ88" s="11">
         <v>16400</v>
       </c>
+      <c r="JK88" s="11">
+        <v>16300</v>
+      </c>
+      <c r="JL88" s="11">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>108</v>
       </c>
@@ -68216,8 +68702,14 @@
       <c r="JJ89" s="11">
         <v>16100</v>
       </c>
+      <c r="JK89" s="11">
+        <v>16000</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>15900</v>
+      </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>109</v>
       </c>
@@ -69026,8 +69518,14 @@
       <c r="JJ90" s="11">
         <v>300</v>
       </c>
+      <c r="JK90" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>110</v>
       </c>
@@ -69834,10 +70332,16 @@
         <v>105900</v>
       </c>
       <c r="JJ91" s="11">
-        <v>108000</v>
+        <v>108400</v>
+      </c>
+      <c r="JK91" s="11">
+        <v>109200</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>109000</v>
       </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>111</v>
       </c>
@@ -70644,10 +71148,16 @@
         <v>35600</v>
       </c>
       <c r="JJ92" s="11">
-        <v>37200</v>
+        <v>37600</v>
+      </c>
+      <c r="JK92" s="11">
+        <v>38600</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>38800</v>
       </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>112</v>
       </c>
@@ -71454,10 +71964,16 @@
         <v>21100</v>
       </c>
       <c r="JJ93" s="11">
-        <v>22700</v>
+        <v>23100</v>
+      </c>
+      <c r="JK93" s="11">
+        <v>23900</v>
+      </c>
+      <c r="JL93" s="11">
+        <v>24300</v>
       </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>113</v>
       </c>
@@ -72266,8 +72782,14 @@
       <c r="JJ94" s="11">
         <v>14500</v>
       </c>
+      <c r="JK94" s="11">
+        <v>14700</v>
+      </c>
+      <c r="JL94" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>114</v>
       </c>
@@ -73076,8 +73598,14 @@
       <c r="JJ95" s="11">
         <v>70800</v>
       </c>
+      <c r="JK95" s="11">
+        <v>70600</v>
+      </c>
+      <c r="JL95" s="11">
+        <v>70200</v>
+      </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>115</v>
       </c>
@@ -73886,8 +74414,14 @@
       <c r="JJ96" s="11">
         <v>23200</v>
       </c>
+      <c r="JK96" s="11">
+        <v>23100</v>
+      </c>
+      <c r="JL96" s="11">
+        <v>22900</v>
+      </c>
     </row>
-    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>116</v>
       </c>
@@ -74696,8 +75230,14 @@
       <c r="JJ97" s="11">
         <v>47600</v>
       </c>
+      <c r="JK97" s="11">
+        <v>47500</v>
+      </c>
+      <c r="JL97" s="11">
+        <v>47300</v>
+      </c>
     </row>
-    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>117</v>
       </c>
@@ -75506,8 +76046,14 @@
       <c r="JJ98" s="11">
         <v>7000</v>
       </c>
+      <c r="JK98" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL98" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>118</v>
       </c>
@@ -76316,8 +76862,14 @@
       <c r="JJ99" s="11">
         <v>38300</v>
       </c>
+      <c r="JK99" s="11">
+        <v>38200</v>
+      </c>
+      <c r="JL99" s="11">
+        <v>38100</v>
+      </c>
     </row>
-    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>119</v>
       </c>
@@ -77126,8 +77678,14 @@
       <c r="JJ100" s="11">
         <v>2300</v>
       </c>
+      <c r="JK100" s="11">
+        <v>2300</v>
+      </c>
+      <c r="JL100" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>228</v>
       </c>
@@ -77140,7 +77698,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>16</v>
       </c>
@@ -77153,7 +77711,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>229</v>
       </c>
@@ -77166,7 +77724,7 @@
       <c r="H104" s="14"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>230</v>
       </c>
@@ -77179,7 +77737,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>231</v>
       </c>
@@ -77192,7 +77750,7 @@
       <c r="H106" s="14"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>232</v>
       </c>
@@ -77205,7 +77763,7 @@
       <c r="H107" s="14"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>233</v>
       </c>
@@ -77218,7 +77776,7 @@
       <c r="H108" s="14"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>234</v>
       </c>
